--- a/documentacion/Documentos/Mejoras.xlsx
+++ b/documentacion/Documentos/Mejoras.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos Colombero\Desktop\MC Elite Machines\MEJORAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\mcelitemachines\documentacion\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646E8487-1D28-4375-ACF2-B6C025A882B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A97BB3E5-C16C-420F-B49C-B5CB157BC89E}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="insumos" sheetId="2" r:id="rId2"/>
+    <sheet name="articulos" sheetId="3" r:id="rId3"/>
+    <sheet name="detalle Produccion" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
   <si>
     <t>Control de stock de materiales</t>
   </si>
@@ -155,12 +156,150 @@
   </si>
   <si>
     <t>Sincronización con página web</t>
+  </si>
+  <si>
+    <t>idinsumos</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>unidadmedida</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>CAÑO 80X40</t>
+  </si>
+  <si>
+    <t>METROS</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>CAÑO 50X50</t>
+  </si>
+  <si>
+    <t>CAÑO 45X45</t>
+  </si>
+  <si>
+    <t>CAÑO 40X40</t>
+  </si>
+  <si>
+    <t>CAÑO 35X35</t>
+  </si>
+  <si>
+    <t>CAÑO DIAM 1</t>
+  </si>
+  <si>
+    <t>CAÑO DIAM 3/4"</t>
+  </si>
+  <si>
+    <t>CAÑO DIAM 32</t>
+  </si>
+  <si>
+    <t>CAÑO DIAM 44</t>
+  </si>
+  <si>
+    <t>BARRA DIAM 15</t>
+  </si>
+  <si>
+    <t>BARRA DIAM 20</t>
+  </si>
+  <si>
+    <t>BARRA DIAM 28</t>
+  </si>
+  <si>
+    <t>PLANCHUELA 38X3</t>
+  </si>
+  <si>
+    <t>PLANCHUELA 44X3</t>
+  </si>
+  <si>
+    <t>PLANCHUELA 50X3</t>
+  </si>
+  <si>
+    <t>ANGULO 25X3</t>
+  </si>
+  <si>
+    <t>ANGULO 50X3</t>
+  </si>
+  <si>
+    <t>RODAMIENTOS</t>
+  </si>
+  <si>
+    <t>UNIDAD</t>
+  </si>
+  <si>
+    <t>REGATONES</t>
+  </si>
+  <si>
+    <t>LINGOTES</t>
+  </si>
+  <si>
+    <t>CABLE</t>
+  </si>
+  <si>
+    <t>PRENSACABLES</t>
+  </si>
+  <si>
+    <t>GUARDACABOS</t>
+  </si>
+  <si>
+    <t>POLEAS PVC 90MM</t>
+  </si>
+  <si>
+    <t>PINTURA</t>
+  </si>
+  <si>
+    <t>LITROS</t>
+  </si>
+  <si>
+    <t>THINNER</t>
+  </si>
+  <si>
+    <t>idarticulos</t>
+  </si>
+  <si>
+    <t>ean13</t>
+  </si>
+  <si>
+    <t>codbar</t>
+  </si>
+  <si>
+    <t>tapizado</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>POLEA ENFRENTADA MAX</t>
+  </si>
+  <si>
+    <t>VINILICO</t>
+  </si>
+  <si>
+    <t>AZUL</t>
+  </si>
+  <si>
+    <t>iddetalleproduccion</t>
+  </si>
+  <si>
+    <t>insumo</t>
+  </si>
+  <si>
+    <t>cantidad</t>
+  </si>
+  <si>
+    <t>ordenproceso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -589,11 +728,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA9CE06-D3B4-49B0-B33B-5DEA9928D90F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,4 +982,487 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>777777777</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>